--- a/DataDrivenFrameWork/src/com/gloryroad/data/126邮箱的测试数据.xlsx
+++ b/DataDrivenFrameWork/src/com/gloryroad/data/126邮箱的测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12555" windowHeight="4320"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="13515" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>行号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,7 +160,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试执行失败</t>
+    <t>xiaozhuzhu7586@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -170,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +207,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,11 +237,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -599,26 +613,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.25" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.25" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.25" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="1" max="1" width="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -812,8 +826,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
+      <c r="A6" s="4">
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -842,7 +856,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -866,7 +880,36 @@
         <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -876,9 +919,10 @@
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
     <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
